--- a/Schema/WPG_Inowrocław/SLO_CelPracyArchiwalny.xlsx
+++ b/Schema/WPG_Inowrocław/SLO_CelPracyArchiwalny.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\WPG_Inowrocław\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3FCB505-DDC6-4901-BEB5-410CB6AB1749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0640748-2D94-4BC8-B1CE-784BEFA766F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{F1FA4AC9-EB36-48EE-B237-DFFCE509E975}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -408,6 +418,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C2ADA6D5-8D7C-4371-B520-EC804260FE9B}" name="Tabela1" displayName="Tabela1" ref="A1:C95" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:C95" xr:uid="{6DBDBA33-E3C7-4C4E-9241-8A6A71F5EBFA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C95">
+    <sortCondition ref="A2:A95"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{721623A9-B6B9-4560-A64D-45F0AF7C1165}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/key" xmlDataType="integer"/>
@@ -722,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,1130 +758,1130 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100119</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C2" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja obiektu wydłużonego"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100120</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C3" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Modernizacja ewidencji gruntów i budynków"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100122</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="C4" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Obsługa geodezyjna - praca etapowana"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100001</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C5" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Podział"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100003</v>
+        <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Rozgraniczenie nieruchomości"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100002</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inne opracowania do celów prawnych"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100005</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja obiektu budowlanego"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100004</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="C9" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Wznowienie znaków granicznych"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100007</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C10" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100006</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C11" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja budynku lub budowli (następne na tej samej działce)"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100009</v>
+        <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C12" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja obiektu punktowego"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>100008</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C13" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci uzbrojenia terenu"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100011</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C14" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 4"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100010</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C15" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Aktualizacja mapy w skali 1:1000 i w skalach większych"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100013</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C16" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Zakładanie ewidencji gruntów"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100012</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C17" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Aktualizacja mapy dla obszaru do 0.5 ha niezależnie od skali opracowania"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100015</v>
+        <v>100001</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C18" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Modernizacja ewidencji gruntów"/&gt;</v>
+        <v>&lt;enumeration value="Podział"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>100014</v>
+        <v>100002</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C19" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Zakładanie ewidencji budynków"/&gt;</v>
+        <v>&lt;enumeration value="Inne opracowania do celów prawnych"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100017</v>
+        <v>100003</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Okresowa weryfikacja danych ewidencyjnych"/&gt;</v>
+        <v>&lt;enumeration value="Rozgraniczenie nieruchomości"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100016</v>
+        <v>100004</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C21" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Modernizacja ewidencji budynków"/&gt;</v>
+        <v>&lt;enumeration value="Wznowienie znaków granicznych"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100019</v>
+        <v>100005</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C22" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - wykonanie projektu osnowy"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja obiektu budowlanego"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>100018</v>
+        <v>100006</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C23" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - inwentaryzacja"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja budynku lub budowli (następne na tej samej działce)"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100021</v>
+        <v>100007</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - uzupełnienie banku danych geodezyjnych"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>100020</v>
+        <v>100008</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C25" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - stabilizacja, pomiar i opac. wyników"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci uzbrojenia terenu"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100023</v>
+        <v>100009</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C26" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XY I, H III i IV klasy,inne - wykonanie projektu osnowy"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja obiektu punktowego"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100022</v>
+        <v>100010</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C27" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XY I, H III i IV klasy,inne - inwentaryzacja"/&gt;</v>
+        <v>&lt;enumeration value="Aktualizacja mapy w skali 1:1000 i w skalach większych"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>100025</v>
+        <v>100011</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C28" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci wodociągowej"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 4"/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100024</v>
+        <v>100012</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C29" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Osnowa XY I, H III i IV klasy,inne - stabilizacja, pomiar i opac. wyników"/&gt;</v>
+        <v>&lt;enumeration value="Aktualizacja mapy dla obszaru do 0.5 ha niezależnie od skali opracowania"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100027</v>
+        <v>100013</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C30" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci ciepłowniczej"/&gt;</v>
+        <v>&lt;enumeration value="Zakładanie ewidencji gruntów"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100026</v>
+        <v>100014</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C31" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci kanalizacyjnej"/&gt;</v>
+        <v>&lt;enumeration value="Zakładanie ewidencji budynków"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100029</v>
+        <v>100015</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C32" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci telekomunikacyjnej"/&gt;</v>
+        <v>&lt;enumeration value="Modernizacja ewidencji gruntów"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100028</v>
+        <v>100016</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C33" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci elektroenergetycznej"/&gt;</v>
+        <v>&lt;enumeration value="Modernizacja ewidencji budynków"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100031</v>
+        <v>100017</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C34" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci niezidentyfikowanej"/&gt;</v>
+        <v>&lt;enumeration value="Okresowa weryfikacja danych ewidencyjnych"/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100030</v>
+        <v>100018</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C35" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci gazowej"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - inwentaryzacja"/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>100033</v>
+        <v>100019</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C36" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci melioracyjnej"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - wykonanie projektu osnowy"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>100032</v>
+        <v>100020</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C37" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja sieci światłowodowej"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - stabilizacja, pomiar i opac. wyników"/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>100035</v>
+        <v>100021</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C38" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza kanalizacyjnego"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XYH I lub II klasy - uzupełnienie banku danych geodezyjnych"/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>100034</v>
+        <v>100022</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C39" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza wodociągowego"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XY I, H III i IV klasy,inne - inwentaryzacja"/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>100037</v>
+        <v>100023</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C40" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza elektroenergetycznego"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XY I, H III i IV klasy,inne - wykonanie projektu osnowy"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>100036</v>
+        <v>100024</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C41" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza ciepłowniczego"/&gt;</v>
+        <v>&lt;enumeration value="Osnowa XY I, H III i IV klasy,inne - stabilizacja, pomiar i opac. wyników"/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>100039</v>
+        <v>100025</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C42" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza gazowego"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci wodociągowej"/&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>100038</v>
+        <v>100026</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C43" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza telefonicznego"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci kanalizacyjnej"/&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>100041</v>
+        <v>100027</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C44" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Pomiar syt-wys,matryca"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci ciepłowniczej"/&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>100040</v>
+        <v>100028</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C45" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja przyłącza światłowodowego"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci elektroenergetycznej"/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>100043</v>
+        <v>100029</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C46" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja wodociągu"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci telekomunikacyjnej"/&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>100042</v>
+        <v>100030</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C47" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja kabla eNN"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci gazowej"/&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>100045</v>
+        <v>100031</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C48" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 6"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci niezidentyfikowanej"/&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>100044</v>
+        <v>100032</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C49" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 1"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci światłowodowej"/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>100047</v>
+        <v>100033</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C50" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Mapa numeryczna"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja sieci melioracyjnej"/&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>100046</v>
+        <v>100034</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C51" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Pomiar syt-wys"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza wodociągowego"/&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>100049</v>
+        <v>100035</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C52" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Mapa do celów projektowych"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza kanalizacyjnego"/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>100048</v>
+        <v>100036</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C53" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Aktualizacja pomiar syt-wys"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza ciepłowniczego"/&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100051</v>
+        <v>100037</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C54" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 9"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza elektroenergetycznego"/&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>100050</v>
+        <v>100038</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C55" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja powykonawcza słupów energetycznych"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza telefonicznego"/&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>100053</v>
+        <v>100039</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C56" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Aktualizacja"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza gazowego"/&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100052</v>
+        <v>100040</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C57" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 3"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja przyłącza światłowodowego"/&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>100055</v>
+        <v>100041</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C58" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja powykonawcza kanalizacji"/&gt;</v>
+        <v>&lt;enumeration value="Pomiar syt-wys,matryca"/&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>100054</v>
+        <v>100042</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C59" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja powyk.budynku i urządzeń podziemnych"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja kabla eNN"/&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>100057</v>
+        <v>100043</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C60" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Kontrola terenowa"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja wodociągu"/&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>100056</v>
+        <v>100044</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C61" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja powyk. gazu"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 1"/&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>100059</v>
+        <v>100045</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C62" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja budynku lub budowli"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 6"/&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>100058</v>
+        <v>100046</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C63" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja powyk. kabla telefonicznego"/&gt;</v>
+        <v>&lt;enumeration value="Pomiar syt-wys"/&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>100061</v>
+        <v>100047</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C64" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja stopnia wodnego"/&gt;</v>
+        <v>&lt;enumeration value="Mapa numeryczna"/&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>100060</v>
+        <v>100048</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C65" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Mapa do celów opiniodawczych"/&gt;</v>
+        <v>&lt;enumeration value="Aktualizacja pomiar syt-wys"/&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>100063</v>
+        <v>100049</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C66" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 12"/&gt;</v>
+        <v>&lt;enumeration value="Mapa do celów projektowych"/&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>100062</v>
+        <v>100050</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C67" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 8"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja powykonawcza słupów energetycznych"/&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>100065</v>
+        <v>100051</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C68" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 2"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 9"/&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>100064</v>
+        <v>100052</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C69" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Regulowanie stanu prawnego"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 3"/&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100067</v>
+        <v>100053</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C70" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 11"/&gt;</v>
+        <v>&lt;enumeration value="Aktualizacja"/&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>100066</v>
+        <v>100054</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C71" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 10"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja powyk.budynku i urządzeń podziemnych"/&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>100055</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C72" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja powykonawcza kanalizacji"/&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>100069</v>
+        <v>100056</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C73" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Wznowienie granic,podział"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja powyk. gazu"/&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>101</v>
+        <v>100057</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C74" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
+        <v>&lt;enumeration value="Kontrola terenowa"/&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>100068</v>
+        <v>100058</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C75" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="klasyfikacja gleboznawcza gruntów"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja powyk. kabla telefonicznego"/&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>102</v>
+        <v>100059</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C76" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja budynku lub budowli"/&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>100071</v>
+        <v>100060</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C77" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 7"/&gt;</v>
+        <v>&lt;enumeration value="Mapa do celów opiniodawczych"/&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>103</v>
+        <v>100061</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C78" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja stopnia wodnego"/&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>100070</v>
+        <v>100062</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C79" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="brak danych 5"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 8"/&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>104</v>
+        <v>100063</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C80" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 12"/&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>100073</v>
+        <v>100064</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C81" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja map ewidencyjnych"/&gt;</v>
+        <v>&lt;enumeration value="Regulowanie stanu prawnego"/&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>105</v>
+        <v>100065</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C82" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 2"/&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>100072</v>
+        <v>100066</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C83" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Inwentaryzacja powyk.kanalizacji i wody"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 10"/&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>106</v>
+        <v>100067</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C84" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 11"/&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100075</v>
+        <v>100068</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C85" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Dokumentacja do celów prawnych"/&gt;</v>
+        <v>&lt;enumeration value="klasyfikacja gleboznawcza gruntów"/&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>107</v>
+        <v>100069</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C86" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="Wznowienie granic,podział"/&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>100074</v>
+        <v>100070</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C87" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Pomiar uzytku"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 5"/&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>108</v>
+        <v>100071</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C88" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
+        <v>&lt;enumeration value="brak danych 7"/&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>109</v>
+        <v>100072</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C89" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja powyk.kanalizacji i wody"/&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>110</v>
+        <v>100073</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C90" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja map ewidencyjnych"/&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>111</v>
+        <v>100074</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C91" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
+        <v>&lt;enumeration value="Pomiar uzytku"/&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>112</v>
+        <v>100075</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C92" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
+        <v>&lt;enumeration value="Dokumentacja do celów prawnych"/&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>113</v>
+        <v>100119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="C93" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
+        <v>&lt;enumeration value="Inwentaryzacja obiektu wydłużonego"/&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>114</v>
+        <v>100120</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="C94" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
+        <v>&lt;enumeration value="Modernizacja ewidencji gruntów i budynków"/&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>115</v>
+        <v>100122</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C95" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
+        <v>&lt;enumeration value="Obsługa geodezyjna - praca etapowana"/&gt;</v>
       </c>
     </row>
   </sheetData>
